--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8DE1C-C960-40E7-89D8-7A3FC1AE46E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CF050F-6D10-4173-8A61-DB63C7603B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="nexus" sheetId="3" r:id="rId3"/>
     <sheet name="repsol" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -155,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nº factura:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nombre:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +623,10 @@
   </si>
   <si>
     <t>Potencias Contratadas:xYYx&amp;&amp;Potències contractades:xYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nº factura:&amp;&amp;Nº de factura simplificada:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,13 +638,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -653,14 +652,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -682,7 +681,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1331,25 +1330,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1364,40 +1363,40 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1410,7 +1409,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -1418,37 +1417,37 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1456,19 +1455,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1476,7 +1475,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1493,30 +1492,30 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1524,20 +1523,20 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1554,7 +1553,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1569,12 +1568,12 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1591,7 +1590,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1608,22 +1607,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1640,10 +1639,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1657,13 +1656,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1674,13 +1673,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1691,13 +1690,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1708,158 +1707,158 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1870,13 +1869,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1887,13 +1886,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1904,28 +1903,28 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1936,13 +1935,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1953,13 +1952,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1970,107 +1969,107 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2091,22 +2090,22 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2121,27 +2120,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2151,9 +2150,9 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2163,9 +2162,9 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2174,16 +2173,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2195,12 +2194,12 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2212,9 +2211,9 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2223,16 +2222,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2243,12 +2242,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2259,12 +2258,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2279,12 +2278,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2299,12 +2298,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -2324,9 +2323,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2338,9 +2337,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2352,9 +2351,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2366,9 +2365,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2380,12 +2379,12 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2398,12 +2397,12 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2414,9 +2413,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
@@ -2425,7 +2424,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2437,24 +2436,24 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2464,12 +2463,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -2489,9 +2488,9 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2503,9 +2502,9 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2517,9 +2516,9 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2531,9 +2530,9 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2545,9 +2544,9 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2559,9 +2558,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2573,9 +2572,9 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2587,15 +2586,15 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2607,15 +2606,15 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2627,15 +2626,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2647,9 +2646,9 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2660,9 +2659,9 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2673,9 +2672,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2686,9 +2685,9 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2700,9 +2699,9 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2714,9 +2713,9 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2728,9 +2727,9 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2742,9 +2741,9 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2755,9 +2754,9 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2768,9 +2767,9 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2781,9 +2780,9 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2794,9 +2793,9 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2807,9 +2806,9 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2820,9 +2819,9 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2833,9 +2832,9 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2846,9 +2845,9 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2859,9 +2858,9 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2872,9 +2871,9 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2885,9 +2884,9 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2898,9 +2897,9 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2911,9 +2910,9 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2924,9 +2923,9 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2937,9 +2936,9 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2950,9 +2949,9 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2963,9 +2962,9 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2976,9 +2975,9 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2989,9 +2988,9 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3002,9 +3001,9 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3015,9 +3014,9 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3028,15 +3027,15 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -3048,15 +3047,15 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3068,15 +3067,15 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -3088,9 +3087,9 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3101,9 +3100,9 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3114,9 +3113,9 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3127,15 +3126,15 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3147,15 +3146,15 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3167,15 +3166,15 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3187,9 +3186,9 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3200,9 +3199,9 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3213,9 +3212,9 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3226,9 +3225,9 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3239,9 +3238,9 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3252,9 +3251,9 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3265,9 +3264,9 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3278,9 +3277,9 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3291,9 +3290,9 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3304,9 +3303,9 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3317,9 +3316,9 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3330,9 +3329,9 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3343,9 +3342,9 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3356,9 +3355,9 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3369,9 +3368,9 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3382,9 +3381,9 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3395,9 +3394,9 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3408,9 +3407,9 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3421,9 +3420,9 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3434,9 +3433,9 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3447,9 +3446,9 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3478,16 +3477,16 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3502,27 +3501,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3532,9 +3531,9 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3544,9 +3543,9 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3555,11 +3554,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3578,9 +3577,9 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -3593,9 +3592,9 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3604,13 +3603,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3624,9 +3623,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -3640,9 +3639,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3660,9 +3659,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3680,18 +3679,18 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3703,9 +3702,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3717,9 +3716,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3731,9 +3730,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3745,9 +3744,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3759,12 +3758,12 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3777,7 +3776,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -3797,9 +3796,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3809,12 +3808,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -3835,12 +3834,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -3858,9 +3857,9 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -3881,9 +3880,9 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -3904,15 +3903,15 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3920,9 +3919,9 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -3943,9 +3942,9 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -3966,9 +3965,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -3989,9 +3988,9 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -4003,15 +4002,15 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4025,15 +4024,15 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4047,15 +4046,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -4069,15 +4068,15 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4091,15 +4090,15 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4113,15 +4112,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -4135,44 +4134,44 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4183,9 +4182,9 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4196,9 +4195,9 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4209,9 +4208,9 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4222,9 +4221,9 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4235,9 +4234,9 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4248,9 +4247,9 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4261,9 +4260,9 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4274,9 +4273,9 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4287,9 +4286,9 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4300,9 +4299,9 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4313,9 +4312,9 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4326,9 +4325,9 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4339,9 +4338,9 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4352,9 +4351,9 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4365,9 +4364,9 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4378,9 +4377,9 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4391,9 +4390,9 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4404,9 +4403,9 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4417,9 +4416,9 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4430,9 +4429,9 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4443,15 +4442,15 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4465,15 +4464,15 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4487,15 +4486,15 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4509,15 +4508,15 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4531,15 +4530,15 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4553,15 +4552,15 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4575,15 +4574,15 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -4597,15 +4596,15 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -4619,15 +4618,15 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -4641,15 +4640,15 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -4663,15 +4662,15 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -4685,15 +4684,15 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -4707,9 +4706,9 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4720,9 +4719,9 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4733,9 +4732,9 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4746,9 +4745,9 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4759,9 +4758,9 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4772,9 +4771,9 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4785,15 +4784,15 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -4807,15 +4806,15 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -4829,15 +4828,15 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -4851,15 +4850,15 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4873,15 +4872,15 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
@@ -4895,15 +4894,15 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -4917,9 +4916,9 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4930,9 +4929,9 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4943,9 +4942,9 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4956,9 +4955,9 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4969,9 +4968,9 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4982,9 +4981,9 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5009,21 +5008,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5038,27 +5037,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5069,9 +5068,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5082,9 +5081,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5093,16 +5092,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5113,15 +5112,15 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5133,9 +5132,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5144,19 +5143,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5168,15 +5167,15 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5188,12 +5187,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -5208,12 +5207,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -5228,12 +5227,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -5251,9 +5250,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -5265,9 +5264,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -5279,9 +5278,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -5293,9 +5292,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -5307,9 +5306,9 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
@@ -5323,7 +5322,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -5339,16 +5338,16 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -5362,16 +5361,16 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -5382,12 +5381,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -5405,9 +5404,9 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -5419,16 +5418,16 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5440,16 +5439,16 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5461,16 +5460,16 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -5482,12 +5481,12 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5499,9 +5498,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5513,9 +5512,9 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -5527,21 +5526,21 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5551,21 +5550,21 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5575,21 +5574,21 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5599,9 +5598,9 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5612,9 +5611,9 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5625,9 +5624,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5638,9 +5637,9 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5651,9 +5650,9 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5664,9 +5663,9 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5677,9 +5676,9 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5690,9 +5689,9 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5703,9 +5702,9 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5716,21 +5715,21 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5740,9 +5739,9 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5753,21 +5752,21 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5777,9 +5776,9 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5790,9 +5789,9 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5803,9 +5802,9 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5816,21 +5815,21 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5840,9 +5839,9 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5853,21 +5852,21 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -5877,9 +5876,9 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5890,9 +5889,9 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5903,9 +5902,9 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5916,9 +5915,9 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5929,9 +5928,9 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5942,9 +5941,9 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5955,9 +5954,9 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5968,9 +5967,9 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5981,9 +5980,9 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5994,9 +5993,9 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -6007,9 +6006,9 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -6020,15 +6019,15 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -6040,15 +6039,15 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -6060,15 +6059,15 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -6080,9 +6079,9 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -6093,9 +6092,9 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -6106,9 +6105,9 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -6119,15 +6118,15 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -6139,15 +6138,15 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -6159,15 +6158,15 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -6179,9 +6178,9 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6192,9 +6191,9 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6205,9 +6204,9 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6218,9 +6217,9 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6231,9 +6230,9 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6244,9 +6243,9 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6257,9 +6256,9 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -6270,9 +6269,9 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6283,9 +6282,9 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6296,9 +6295,9 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6309,9 +6308,9 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6322,9 +6321,9 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6335,9 +6334,9 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6348,9 +6347,9 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6361,9 +6360,9 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6374,9 +6373,9 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6387,9 +6386,9 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6400,9 +6399,9 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6413,9 +6412,9 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6426,9 +6425,9 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6439,9 +6438,9 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CF050F-6D10-4173-8A61-DB63C7603B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323D5FA-4FE5-4401-9C5A-97193537B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="184">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,9 +587,6 @@
     <t>xYYxSubtotalxYYx</t>
   </si>
   <si>
-    <t xml:space="preserve">IVA (5 %) de </t>
-  </si>
-  <si>
     <t>CUPS:&amp;&amp;Identificador:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +625,12 @@
   <si>
     <t>Nº factura:&amp;&amp;Nº de factura simplificada:</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA (5 %) de &amp;&amp;IVA (21 %) de </t>
+  </si>
+  <si>
+    <t>TOTAL FACTURAxYYx&amp;&amp;Cese anticipadoxYYx</t>
   </si>
 </sst>
 </file>
@@ -638,13 +641,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,14 +655,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -681,7 +684,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1330,20 +1333,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1436,7 +1439,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2090,17 +2093,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2138,7 +2141,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -2150,7 +2153,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -2162,7 +2165,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -2177,7 +2180,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -2211,7 +2214,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -2226,7 +2229,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -2242,7 +2245,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2261,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -2278,7 +2281,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2298,7 +2301,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -2323,7 +2326,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -2337,7 +2340,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -2351,7 +2354,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2368,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2382,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -2397,7 +2400,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -2413,7 +2416,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
@@ -2436,7 +2439,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>133</v>
       </c>
@@ -2463,7 +2466,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -2530,7 +2533,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -2544,7 +2547,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -2558,7 +2561,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -2572,7 +2575,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2589,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -2606,7 +2609,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -2626,7 +2629,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -2659,7 +2662,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -2672,7 +2675,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
@@ -2685,7 +2688,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>76</v>
       </c>
@@ -2699,7 +2702,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -2713,7 +2716,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
@@ -2727,7 +2730,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -2741,7 +2744,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
@@ -2754,7 +2757,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>82</v>
       </c>
@@ -2780,7 +2783,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>83</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
@@ -2806,7 +2809,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -2819,7 +2822,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
@@ -2832,7 +2835,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>87</v>
       </c>
@@ -2845,7 +2848,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>88</v>
       </c>
@@ -2858,7 +2861,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>89</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
@@ -2884,7 +2887,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>91</v>
       </c>
@@ -2897,7 +2900,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>92</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>93</v>
       </c>
@@ -2923,7 +2926,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -2936,7 +2939,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>95</v>
       </c>
@@ -2949,7 +2952,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>96</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>97</v>
       </c>
@@ -2975,7 +2978,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>98</v>
       </c>
@@ -2988,7 +2991,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>99</v>
       </c>
@@ -3001,7 +3004,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>100</v>
       </c>
@@ -3014,7 +3017,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
@@ -3027,7 +3030,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>102</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
@@ -3067,7 +3070,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>104</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>105</v>
       </c>
@@ -3100,7 +3103,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>106</v>
       </c>
@@ -3113,7 +3116,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>107</v>
       </c>
@@ -3126,7 +3129,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>108</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>109</v>
       </c>
@@ -3166,7 +3169,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>110</v>
       </c>
@@ -3186,7 +3189,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>111</v>
       </c>
@@ -3199,7 +3202,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>112</v>
       </c>
@@ -3212,7 +3215,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>113</v>
       </c>
@@ -3225,7 +3228,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>114</v>
       </c>
@@ -3238,7 +3241,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>115</v>
       </c>
@@ -3251,7 +3254,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>116</v>
       </c>
@@ -3264,7 +3267,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>117</v>
       </c>
@@ -3277,7 +3280,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>118</v>
       </c>
@@ -3290,7 +3293,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>119</v>
       </c>
@@ -3303,7 +3306,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -3316,7 +3319,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>121</v>
       </c>
@@ -3329,7 +3332,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>122</v>
       </c>
@@ -3342,7 +3345,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>123</v>
       </c>
@@ -3355,7 +3358,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>124</v>
       </c>
@@ -3368,7 +3371,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>125</v>
       </c>
@@ -3381,7 +3384,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>126</v>
       </c>
@@ -3394,7 +3397,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>127</v>
       </c>
@@ -3407,7 +3410,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>128</v>
       </c>
@@ -3420,7 +3423,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>129</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>130</v>
       </c>
@@ -3446,7 +3449,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>131</v>
       </c>
@@ -3477,11 +3480,11 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3519,7 +3522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -3531,7 +3534,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3546,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3577,7 +3580,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -3592,7 +3595,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -3607,7 +3610,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -3623,7 +3626,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -3639,7 +3642,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -3659,7 +3662,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -3679,7 +3682,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -3702,7 +3705,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -3716,7 +3719,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -3730,7 +3733,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -3744,7 +3747,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -3758,7 +3761,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3799,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>133</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -3857,7 +3860,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -3880,7 +3883,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -3903,7 +3906,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -3942,7 +3945,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -3988,7 +3991,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -4002,7 +4005,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -4024,7 +4027,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -4046,7 +4049,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -4068,7 +4071,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -4090,7 +4093,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -4112,7 +4115,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
@@ -4134,42 +4137,42 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
@@ -4182,7 +4185,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>82</v>
       </c>
@@ -4195,7 +4198,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>83</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
@@ -4221,7 +4224,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
@@ -4247,7 +4250,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>87</v>
       </c>
@@ -4260,7 +4263,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>88</v>
       </c>
@@ -4273,7 +4276,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>89</v>
       </c>
@@ -4286,7 +4289,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
@@ -4299,7 +4302,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>91</v>
       </c>
@@ -4312,7 +4315,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>92</v>
       </c>
@@ -4325,7 +4328,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>93</v>
       </c>
@@ -4338,7 +4341,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -4351,7 +4354,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>95</v>
       </c>
@@ -4364,7 +4367,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>96</v>
       </c>
@@ -4377,7 +4380,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>97</v>
       </c>
@@ -4390,7 +4393,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>98</v>
       </c>
@@ -4403,7 +4406,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>99</v>
       </c>
@@ -4416,7 +4419,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>100</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
@@ -4442,7 +4445,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>102</v>
       </c>
@@ -4464,7 +4467,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
@@ -4486,7 +4489,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>104</v>
       </c>
@@ -4508,7 +4511,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>105</v>
       </c>
@@ -4530,7 +4533,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>106</v>
       </c>
@@ -4552,7 +4555,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>107</v>
       </c>
@@ -4574,7 +4577,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>108</v>
       </c>
@@ -4596,7 +4599,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>109</v>
       </c>
@@ -4618,7 +4621,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>110</v>
       </c>
@@ -4640,7 +4643,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>111</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>112</v>
       </c>
@@ -4684,7 +4687,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>113</v>
       </c>
@@ -4706,7 +4709,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>114</v>
       </c>
@@ -4719,7 +4722,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>115</v>
       </c>
@@ -4732,7 +4735,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>116</v>
       </c>
@@ -4745,7 +4748,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>117</v>
       </c>
@@ -4758,7 +4761,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>118</v>
       </c>
@@ -4771,7 +4774,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>119</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -4806,7 +4809,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>121</v>
       </c>
@@ -4828,7 +4831,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>122</v>
       </c>
@@ -4850,7 +4853,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>123</v>
       </c>
@@ -4872,7 +4875,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>124</v>
       </c>
@@ -4894,7 +4897,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>125</v>
       </c>
@@ -4916,7 +4919,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>126</v>
       </c>
@@ -4929,7 +4932,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>127</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>128</v>
       </c>
@@ -4955,7 +4958,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>129</v>
       </c>
@@ -4968,7 +4971,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>130</v>
       </c>
@@ -4981,7 +4984,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>131</v>
       </c>
@@ -5008,16 +5011,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5055,7 +5058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -5068,7 +5071,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -5081,7 +5084,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -5096,12 +5099,12 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5112,12 +5115,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>147</v>
@@ -5132,7 +5135,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -5147,12 +5150,12 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>168</v>
@@ -5167,12 +5170,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>168</v>
@@ -5187,12 +5190,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -5207,12 +5210,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -5227,7 +5230,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -5250,7 +5253,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -5264,7 +5267,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -5278,7 +5281,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -5292,7 +5295,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -5306,7 +5309,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -5322,7 +5325,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -5338,12 +5341,12 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
@@ -5361,12 +5364,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
@@ -5381,7 +5384,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -5404,7 +5407,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -5418,7 +5421,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -5439,7 +5442,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -5460,12 +5463,12 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
@@ -5481,12 +5484,12 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5498,7 +5501,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -5512,7 +5515,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -5526,12 +5529,12 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>147</v>
@@ -5550,12 +5553,12 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>147</v>
@@ -5574,12 +5577,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>147</v>
@@ -5598,7 +5601,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -5611,7 +5614,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -5624,7 +5627,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
@@ -5637,7 +5640,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>76</v>
       </c>
@@ -5650,7 +5653,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -5663,7 +5666,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
@@ -5676,7 +5679,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -5689,7 +5692,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
@@ -5702,7 +5705,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
@@ -5715,12 +5718,12 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>147</v>
@@ -5739,7 +5742,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>83</v>
       </c>
@@ -5752,12 +5755,12 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>147</v>
@@ -5776,7 +5779,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -5789,7 +5792,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
@@ -5802,7 +5805,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>87</v>
       </c>
@@ -5815,12 +5818,12 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>147</v>
@@ -5839,7 +5842,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>89</v>
       </c>
@@ -5852,12 +5855,12 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>147</v>
@@ -5876,7 +5879,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>91</v>
       </c>
@@ -5889,7 +5892,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>92</v>
       </c>
@@ -5902,7 +5905,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>93</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
@@ -5928,7 +5931,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>95</v>
       </c>
@@ -5941,7 +5944,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>96</v>
       </c>
@@ -5954,7 +5957,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>97</v>
       </c>
@@ -5967,7 +5970,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>98</v>
       </c>
@@ -5980,7 +5983,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>99</v>
       </c>
@@ -5993,7 +5996,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>100</v>
       </c>
@@ -6006,7 +6009,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
@@ -6019,7 +6022,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>102</v>
       </c>
@@ -6039,7 +6042,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
@@ -6059,7 +6062,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>104</v>
       </c>
@@ -6079,7 +6082,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>105</v>
       </c>
@@ -6092,7 +6095,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>106</v>
       </c>
@@ -6105,7 +6108,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>107</v>
       </c>
@@ -6118,7 +6121,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>108</v>
       </c>
@@ -6138,7 +6141,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>109</v>
       </c>
@@ -6158,7 +6161,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>110</v>
       </c>
@@ -6178,7 +6181,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>111</v>
       </c>
@@ -6191,7 +6194,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>112</v>
       </c>
@@ -6204,7 +6207,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>113</v>
       </c>
@@ -6217,7 +6220,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>114</v>
       </c>
@@ -6230,7 +6233,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>115</v>
       </c>
@@ -6243,7 +6246,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>116</v>
       </c>
@@ -6256,7 +6259,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>117</v>
       </c>
@@ -6269,7 +6272,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>118</v>
       </c>
@@ -6282,7 +6285,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>119</v>
       </c>
@@ -6295,7 +6298,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -6308,7 +6311,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>121</v>
       </c>
@@ -6321,7 +6324,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>122</v>
       </c>
@@ -6334,7 +6337,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>123</v>
       </c>
@@ -6347,7 +6350,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>124</v>
       </c>
@@ -6360,7 +6363,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>125</v>
       </c>
@@ -6373,7 +6376,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>126</v>
       </c>
@@ -6386,7 +6389,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>127</v>
       </c>
@@ -6399,7 +6402,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>128</v>
       </c>
@@ -6412,7 +6415,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>129</v>
       </c>
@@ -6425,7 +6428,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>130</v>
       </c>
@@ -6438,7 +6441,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>131</v>
       </c>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323D5FA-4FE5-4401-9C5A-97193537B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164925C-2445-42E4-A6D9-1BE49524E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="nexus" sheetId="3" r:id="rId3"/>
     <sheet name="repsol" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="185">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +632,9 @@
   </si>
   <si>
     <t>TOTAL FACTURAxYYx&amp;&amp;Cese anticipadoxYYx</t>
+  </si>
+  <si>
+    <t>VxRx+WxRx+XxRx+YxRx+ZxRx+AAxRx-ABxRx</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1534,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5011,7 +5015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164925C-2445-42E4-A6D9-1BE49524E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86856DE7-BB50-4C0C-A7A9-6FEEBB922C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -612,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Real) xYYxfins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Potencias máx. demandadas último año:xYYx&amp;&amp;Potències màximes demandades últim any:xYYx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,6 +631,9 @@
   </si>
   <si>
     <t>VxRx+WxRx+XxRx+YxRx+ZxRx+AAxRx-ABxRx</t>
+  </si>
+  <si>
+    <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx&amp;&amp;Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Estimada) xYYxhastaxYYx&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Real) xYYxfins&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Estimado) xYYxfins&amp;&amp;Consum xYYxdel xYYxperiodo xYYx(Estimado) xYYxhasta&amp;&amp;Consumo del periodo (Real) hastaxYYx&amp;&amp;Consum del període (Real) fins axYYx&amp;&amp;Consumo del periodo (Estimado) hastaxYYx</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1443,7 +1442,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1538,7 +1537,7 @@
         <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5015,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5350,7 +5349,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
@@ -5373,7 +5372,7 @@
         <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
@@ -5538,7 +5537,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>147</v>
@@ -5562,7 +5561,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>147</v>
@@ -5586,7 +5585,7 @@
         <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>147</v>
@@ -5727,7 +5726,7 @@
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>147</v>
@@ -5764,7 +5763,7 @@
         <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>147</v>
@@ -5827,7 +5826,7 @@
         <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>147</v>
@@ -5864,7 +5863,7 @@
         <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>147</v>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86856DE7-BB50-4C0C-A7A9-6FEEBB922C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A899E30-77AC-42D4-8EDA-396A1C0E2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="186">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx&amp;&amp;Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Estimada) xYYxhastaxYYx&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Real) xYYxfins&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Estimado) xYYxfins&amp;&amp;Consum xYYxdel xYYxperiodo xYYx(Estimado) xYYxhasta&amp;&amp;Consumo del periodo (Real) hastaxYYx&amp;&amp;Consum del període (Real) fins axYYx&amp;&amp;Consumo del periodo (Estimado) hastaxYYx</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -5014,8 +5017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6038,8 +6041,12 @@
       <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -6058,8 +6065,12 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -6078,8 +6089,12 @@
       <c r="E63" s="1">
         <v>2</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -6137,8 +6152,12 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -6157,8 +6176,12 @@
       <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -6177,8 +6200,12 @@
       <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A899E30-77AC-42D4-8EDA-396A1C0E2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398329D8-FF60-469F-B71F-42229C65C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="185">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <t>Fecha emisión factura</t>
   </si>
   <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>€</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,9 +503,6 @@
     <t>Descuentos</t>
   </si>
   <si>
-    <t>TxRx+UxRx</t>
-  </si>
-  <si>
     <t>Factura</t>
   </si>
   <si>
@@ -630,13 +623,16 @@
     <t>TOTAL FACTURAxYYx&amp;&amp;Cese anticipadoxYYx</t>
   </si>
   <si>
-    <t>VxRx+WxRx+XxRx+YxRx+ZxRx+AAxRx-ABxRx</t>
-  </si>
-  <si>
     <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx&amp;&amp;Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Estimada) xYYxhastaxYYx&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Real) xYYxfins&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Estimado) xYYxfins&amp;&amp;Consum xYYxdel xYYxperiodo xYYx(Estimado) xYYxhasta&amp;&amp;Consumo del periodo (Real) hastaxYYx&amp;&amp;Consum del període (Real) fins axYYx&amp;&amp;Consumo del periodo (Estimado) hastaxYYx</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>VxRx+WxRx+XxRx+YxRx+ZxRx+AAxRx+ABxRx</t>
+  </si>
+  <si>
+    <t>TxRx+VxRx+WxRx+XxRx+YxRx+ZxRx+AAxRx+ABxRx</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1357,7 +1353,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1366,46 +1362,46 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1413,50 +1409,50 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1464,19 +1460,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1484,47 +1480,38 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1532,12 +1519,12 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
         <v>183</v>
@@ -1545,16 +1532,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1562,36 +1549,24 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1599,16 +1574,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1616,31 +1591,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1648,16 +1623,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1665,13 +1640,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1682,13 +1657,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1699,13 +1674,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1716,158 +1691,158 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1878,13 +1853,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1895,13 +1870,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1912,28 +1887,28 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1944,13 +1919,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1961,13 +1936,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1978,107 +1953,107 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2089,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2123,33 +2098,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2161,7 +2136,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2173,7 +2148,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2182,7 +2157,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -2191,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2205,10 +2180,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2222,7 +2197,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2231,16 +2206,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2253,10 +2228,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2269,13 +2244,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2289,13 +2264,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2309,16 +2284,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2334,7 +2309,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2348,7 +2323,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2362,7 +2337,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2376,7 +2351,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2390,10 +2365,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2411,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2424,16 +2399,16 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2447,22 +2422,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2474,16 +2449,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2499,7 +2474,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2513,7 +2488,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2527,7 +2502,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2541,7 +2516,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2555,7 +2530,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2569,7 +2544,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2583,7 +2558,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2597,13 +2572,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2617,13 +2592,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2637,13 +2612,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2657,7 +2632,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2670,7 +2645,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2683,7 +2658,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2696,7 +2671,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2710,7 +2685,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2724,7 +2699,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2738,7 +2713,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2752,7 +2727,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2765,7 +2740,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2778,7 +2753,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2791,7 +2766,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2804,7 +2779,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2817,7 +2792,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2830,7 +2805,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2843,7 +2818,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2856,7 +2831,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2869,7 +2844,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2882,7 +2857,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2895,7 +2870,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2908,7 +2883,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2921,7 +2896,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2934,7 +2909,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2947,7 +2922,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2960,7 +2935,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2973,7 +2948,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2986,7 +2961,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2999,7 +2974,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3012,7 +2987,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3025,7 +3000,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3038,13 +3013,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -3058,13 +3033,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3078,13 +3053,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -3098,7 +3073,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3111,7 +3086,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3124,7 +3099,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3137,13 +3112,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3157,13 +3132,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3177,13 +3152,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3197,7 +3172,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3210,7 +3185,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3223,7 +3198,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3236,7 +3211,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3249,7 +3224,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3262,7 +3237,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3275,7 +3250,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3288,7 +3263,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3301,7 +3276,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3314,7 +3289,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3327,7 +3302,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3340,7 +3315,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3353,7 +3328,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3366,7 +3341,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3379,7 +3354,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3392,7 +3367,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3405,7 +3380,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3418,7 +3393,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3431,7 +3406,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3444,7 +3419,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3457,7 +3432,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3495,7 +3470,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3504,33 +3479,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3542,7 +3517,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3554,7 +3529,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3563,7 +3538,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3572,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3588,10 +3563,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3603,7 +3578,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3612,13 +3587,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3634,10 +3609,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3650,13 +3625,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3670,13 +3645,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3690,16 +3665,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3713,7 +3688,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3727,7 +3702,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3741,7 +3716,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3755,7 +3730,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3769,10 +3744,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3790,10 +3765,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3807,7 +3782,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3817,21 +3792,21 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3845,16 +3820,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3868,16 +3843,16 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3891,16 +3866,16 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3914,13 +3889,13 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3930,16 +3905,16 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3953,16 +3928,16 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -3976,16 +3951,16 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3999,7 +3974,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -4013,13 +3988,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4035,13 +4010,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4057,13 +4032,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -4079,13 +4054,13 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4101,13 +4076,13 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4123,13 +4098,13 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -4145,42 +4120,42 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4193,7 +4168,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4206,7 +4181,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4219,7 +4194,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4232,7 +4207,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4245,7 +4220,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4258,7 +4233,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4271,7 +4246,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4284,7 +4259,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4297,7 +4272,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4310,7 +4285,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4323,7 +4298,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4336,7 +4311,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4349,7 +4324,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4362,7 +4337,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4375,7 +4350,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4388,7 +4363,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4401,7 +4376,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4414,7 +4389,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4427,7 +4402,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4440,7 +4415,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4453,13 +4428,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4475,13 +4450,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4497,13 +4472,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4519,13 +4494,13 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4541,13 +4516,13 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4563,13 +4538,13 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4585,13 +4560,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -4607,13 +4582,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -4629,13 +4604,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -4651,13 +4626,13 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -4673,13 +4648,13 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -4695,13 +4670,13 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -4717,7 +4692,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4730,7 +4705,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4743,7 +4718,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4756,7 +4731,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4769,7 +4744,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4782,7 +4757,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4795,13 +4770,13 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -4817,13 +4792,13 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -4839,13 +4814,13 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -4861,13 +4836,13 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4883,13 +4858,13 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
@@ -4905,13 +4880,13 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -4927,7 +4902,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4940,7 +4915,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4953,7 +4928,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4966,7 +4941,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4979,7 +4954,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4992,7 +4967,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5017,8 +4992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5031,7 +5006,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5040,33 +5015,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5079,7 +5054,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5092,7 +5067,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5101,7 +5076,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5110,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5123,13 +5098,13 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5143,7 +5118,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5152,19 +5127,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5178,13 +5153,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5198,13 +5173,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -5218,13 +5193,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5238,16 +5213,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -5261,7 +5236,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -5275,7 +5250,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -5289,7 +5264,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -5303,7 +5278,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -5317,10 +5292,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5336,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5349,14 +5324,14 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -5372,14 +5347,14 @@
     </row>
     <row r="20" spans="1:11" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -5392,16 +5367,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -5415,7 +5390,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -5429,14 +5404,14 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5450,14 +5425,14 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5471,14 +5446,14 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -5492,10 +5467,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5509,7 +5484,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5523,7 +5498,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -5537,19 +5512,19 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5561,19 +5536,19 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5585,19 +5560,19 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5609,7 +5584,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5622,7 +5597,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5635,7 +5610,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5648,7 +5623,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5661,7 +5636,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5674,7 +5649,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5687,7 +5662,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5700,7 +5675,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5713,7 +5688,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5726,19 +5701,19 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5750,7 +5725,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5763,19 +5738,19 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5787,7 +5762,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5800,7 +5775,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5813,7 +5788,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5826,19 +5801,19 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5850,7 +5825,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5863,19 +5838,19 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -5887,7 +5862,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5900,7 +5875,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5913,7 +5888,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5926,7 +5901,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5939,7 +5914,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5952,7 +5927,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5965,7 +5940,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5978,7 +5953,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5991,7 +5966,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -6004,7 +5979,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -6017,7 +5992,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -6030,19 +6005,19 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -6054,19 +6029,19 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -6078,19 +6053,19 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -6102,7 +6077,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -6115,7 +6090,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -6128,7 +6103,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -6141,19 +6116,19 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -6165,19 +6140,19 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -6189,19 +6164,19 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -6213,7 +6188,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6226,7 +6201,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6239,7 +6214,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6252,7 +6227,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6265,7 +6240,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6278,7 +6253,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6291,7 +6266,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -6304,7 +6279,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6317,7 +6292,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6330,7 +6305,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6343,7 +6318,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6356,7 +6331,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6369,7 +6344,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6382,7 +6357,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6395,7 +6370,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6408,7 +6383,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6421,7 +6396,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6434,7 +6409,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6447,7 +6422,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6460,7 +6435,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6473,7 +6448,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398329D8-FF60-469F-B71F-42229C65C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2828415-0DCB-47FC-9A0A-1B40FA1D2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <t>NIF</t>
   </si>
   <si>
-    <t>Impuestos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Periodo de facturación</t>
   </si>
   <si>
@@ -69,18 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Potencia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energía</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Otros</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nº factura</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,9 +484,6 @@
     <t>CIF/NIF:</t>
   </si>
   <si>
-    <t>Descuentos</t>
-  </si>
-  <si>
     <t>Factura</t>
   </si>
   <si>
@@ -633,6 +614,21 @@
   </si>
   <si>
     <t>TxRx+VxRx+WxRx+XxRx+YxRx+ZxRx+AAxRx+ABxRx</t>
+  </si>
+  <si>
+    <t>EnergíaxYYx</t>
+  </si>
+  <si>
+    <t>PotenciaxYYx</t>
+  </si>
+  <si>
+    <t>ImpuestosxYYx</t>
+  </si>
+  <si>
+    <t>OtrosxYYx</t>
+  </si>
+  <si>
+    <t>DescuentosxYYx</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1353,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1362,46 +1358,46 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1409,50 +1405,50 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1460,19 +1456,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1480,38 +1476,38 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1519,29 +1515,29 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1549,24 +1545,24 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1574,16 +1570,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1591,31 +1587,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1623,16 +1619,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1640,13 +1636,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1657,13 +1653,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1674,13 +1670,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1691,158 +1687,158 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1853,13 +1849,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1870,13 +1866,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1887,28 +1883,28 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1919,13 +1915,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1936,13 +1932,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1953,107 +1949,107 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2098,33 +2094,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2136,7 +2132,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2148,7 +2144,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2157,7 +2153,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -2166,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2180,10 +2176,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2197,7 +2193,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2206,16 +2202,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2228,10 +2224,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2244,13 +2240,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2264,13 +2260,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2284,16 +2280,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2309,7 +2305,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2323,7 +2319,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2337,7 +2333,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2351,7 +2347,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2365,10 +2361,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2386,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2399,16 +2395,16 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2422,22 +2418,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2449,16 +2445,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2474,7 +2470,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2488,7 +2484,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2502,7 +2498,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2516,7 +2512,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2530,7 +2526,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2544,7 +2540,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2558,7 +2554,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2572,13 +2568,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2592,13 +2588,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2612,13 +2608,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2632,7 +2628,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2645,7 +2641,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2658,7 +2654,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2671,7 +2667,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2685,7 +2681,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2699,7 +2695,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2713,7 +2709,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2727,7 +2723,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2740,7 +2736,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2753,7 +2749,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2766,7 +2762,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2779,7 +2775,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2792,7 +2788,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2818,7 +2814,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2831,7 +2827,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2844,7 +2840,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2857,7 +2853,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2870,7 +2866,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2883,7 +2879,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2896,7 +2892,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2909,7 +2905,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2922,7 +2918,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2935,7 +2931,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2948,7 +2944,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2961,7 +2957,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2974,7 +2970,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2987,7 +2983,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3000,7 +2996,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3013,13 +3009,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -3033,13 +3029,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3053,13 +3049,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -3073,7 +3069,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3086,7 +3082,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3099,7 +3095,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3112,13 +3108,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3132,13 +3128,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3152,13 +3148,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3172,7 +3168,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3198,7 +3194,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3211,7 +3207,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3224,7 +3220,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3237,7 +3233,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3250,7 +3246,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3263,7 +3259,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3276,7 +3272,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3289,7 +3285,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3302,7 +3298,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3315,7 +3311,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3328,7 +3324,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3354,7 +3350,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3367,7 +3363,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3380,7 +3376,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3393,7 +3389,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3406,7 +3402,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3419,7 +3415,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3432,7 +3428,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3470,7 +3466,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3479,33 +3475,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3517,7 +3513,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3529,7 +3525,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3538,7 +3534,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3547,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3563,10 +3559,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3578,7 +3574,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3587,16 +3583,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3609,10 +3605,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3625,13 +3621,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3645,13 +3641,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3665,16 +3661,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3688,7 +3684,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3702,7 +3698,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3716,7 +3712,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3730,7 +3726,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3744,10 +3740,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3765,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3782,7 +3778,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3792,21 +3788,21 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3820,16 +3816,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3843,16 +3839,16 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3866,16 +3862,16 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3889,13 +3885,13 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3905,16 +3901,16 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3928,16 +3924,16 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -3951,16 +3947,16 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3974,7 +3970,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -3988,13 +3984,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4010,13 +4006,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4032,13 +4028,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -4054,13 +4050,13 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4076,13 +4072,13 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4098,13 +4094,13 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -4120,42 +4116,42 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4168,7 +4164,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4181,7 +4177,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4194,7 +4190,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4207,7 +4203,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4220,7 +4216,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4233,7 +4229,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4246,7 +4242,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4259,7 +4255,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4272,7 +4268,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4285,7 +4281,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4298,7 +4294,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4311,7 +4307,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4324,7 +4320,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4337,7 +4333,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4363,7 +4359,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4376,7 +4372,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4389,7 +4385,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4402,7 +4398,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4415,7 +4411,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4428,13 +4424,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4450,13 +4446,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4472,13 +4468,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4494,13 +4490,13 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4516,13 +4512,13 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4538,13 +4534,13 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4560,13 +4556,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -4582,13 +4578,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -4604,13 +4600,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -4626,13 +4622,13 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -4648,13 +4644,13 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -4670,13 +4666,13 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -4692,7 +4688,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4705,7 +4701,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4718,7 +4714,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4731,7 +4727,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4744,7 +4740,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4757,7 +4753,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4770,13 +4766,13 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -4792,13 +4788,13 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -4814,13 +4810,13 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -4836,13 +4832,13 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4858,13 +4854,13 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
@@ -4880,13 +4876,13 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -4902,7 +4898,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4915,7 +4911,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4928,7 +4924,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4941,7 +4937,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4954,7 +4950,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4967,7 +4963,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5006,7 +5002,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5015,33 +5011,33 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5054,7 +5050,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5067,7 +5063,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5076,7 +5072,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5085,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5098,13 +5094,13 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5118,7 +5114,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5127,19 +5123,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5153,13 +5149,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5173,13 +5169,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -5193,13 +5189,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5213,16 +5209,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -5236,7 +5232,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -5250,7 +5246,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -5278,7 +5274,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -5292,10 +5288,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5311,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5324,14 +5320,14 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -5347,14 +5343,14 @@
     </row>
     <row r="20" spans="1:11" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -5367,16 +5363,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -5390,7 +5386,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -5404,14 +5400,14 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5425,14 +5421,14 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5446,14 +5442,14 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -5467,10 +5463,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5484,7 +5480,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5498,7 +5494,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -5512,19 +5508,19 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5536,19 +5532,19 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5560,19 +5556,19 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5584,7 +5580,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5597,7 +5593,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5610,7 +5606,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5623,7 +5619,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5636,7 +5632,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5649,7 +5645,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5662,7 +5658,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5675,7 +5671,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5688,7 +5684,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5701,19 +5697,19 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5725,7 +5721,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5738,19 +5734,19 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5762,7 +5758,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5775,7 +5771,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5801,19 +5797,19 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5825,7 +5821,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5838,19 +5834,19 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -5862,7 +5858,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5875,7 +5871,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5888,7 +5884,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5901,7 +5897,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5914,7 +5910,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5927,7 +5923,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5940,7 +5936,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5953,7 +5949,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5966,7 +5962,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5979,7 +5975,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5992,7 +5988,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -6005,19 +6001,19 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -6029,19 +6025,19 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -6053,19 +6049,19 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -6077,7 +6073,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -6090,7 +6086,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -6103,7 +6099,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -6116,19 +6112,19 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -6140,19 +6136,19 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -6164,19 +6160,19 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -6188,7 +6184,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6201,7 +6197,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6214,7 +6210,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6227,7 +6223,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6240,7 +6236,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6253,7 +6249,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6266,7 +6262,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -6279,7 +6275,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6292,7 +6288,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6305,7 +6301,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6318,7 +6314,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6331,7 +6327,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6344,7 +6340,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6357,7 +6353,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6370,7 +6366,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6383,7 +6379,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6396,7 +6392,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6409,7 +6405,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6422,7 +6418,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6435,7 +6431,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6448,7 +6444,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2828415-0DCB-47FC-9A0A-1B40FA1D2AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B457CC-80CA-464F-83F1-66D28E6F4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="186">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,13 +622,16 @@
     <t>PotenciaxYYx</t>
   </si>
   <si>
-    <t>ImpuestosxYYx</t>
-  </si>
-  <si>
     <t>OtrosxYYx</t>
   </si>
   <si>
     <t>DescuentosxYYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impuesto electricidad </t>
+  </si>
+  <si>
+    <t>IVA normal 21%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1335,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1531,15 +1534,21 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0</v>
       </c>
     </row>
@@ -1594,6 +1603,24 @@
       <c r="A25" t="s">
         <v>61</v>
       </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
@@ -1605,7 +1632,7 @@
         <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1622,7 +1649,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>

--- a/PdfToExcel_Parametros.xlsx
+++ b/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B457CC-80CA-464F-83F1-66D28E6F4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097B4B3-3CF1-40E5-AC0A-8675A361A67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -472,9 +472,6 @@
     <t>formula</t>
   </si>
   <si>
-    <t>WxRx+XxRx+YxRx+ZxRx+AAxRx+ABxRx+ACxRx</t>
-  </si>
-  <si>
     <t>€</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   </si>
   <si>
     <t>IVA normal 21%</t>
+  </si>
+  <si>
+    <t>WxRx+ZxRx+AAxRx+ABxRx+ACxRx+VxRx+YxRx</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:G20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1352,7 +1352,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1482,7 +1482,7 @@
         <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1526,7 +1526,7 @@
         <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1534,13 +1534,13 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>129</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1565,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1582,7 +1582,7 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1604,13 +1604,13 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1649,7 +1649,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1666,10 +1666,10 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1683,10 +1683,10 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1700,10 +1700,10 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1862,10 +1862,10 @@
         <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1896,10 +1896,10 @@
         <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1928,10 +1928,10 @@
         <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1945,10 +1945,10 @@
         <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1962,10 +1962,10 @@
         <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2112,7 +2112,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2270,7 +2270,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -2290,7 +2290,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -2310,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -2431,7 +2431,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -2598,10 +2598,10 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2618,10 +2618,10 @@
         <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2638,10 +2638,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3039,10 +3039,10 @@
         <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -3059,10 +3059,10 @@
         <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3079,10 +3079,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -3138,10 +3138,10 @@
         <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3158,10 +3158,10 @@
         <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3178,10 +3178,10 @@
         <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3480,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98519-5164-4E6D-BDC6-A98A4635A150}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3493,7 +3493,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3691,13 +3691,13 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3770,7 +3770,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
@@ -3846,7 +3846,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -3915,10 +3915,10 @@
         <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -4014,10 +4014,10 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4036,10 +4036,10 @@
         <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4058,10 +4058,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -4080,10 +4080,10 @@
         <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4102,10 +4102,10 @@
         <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4124,10 +4124,10 @@
         <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -4454,10 +4454,10 @@
         <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4476,10 +4476,10 @@
         <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4498,10 +4498,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4520,10 +4520,10 @@
         <v>100</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4542,10 +4542,10 @@
         <v>101</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4564,10 +4564,10 @@
         <v>102</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4586,10 +4586,10 @@
         <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -4608,10 +4608,10 @@
         <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -4630,10 +4630,10 @@
         <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -4652,10 +4652,10 @@
         <v>106</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -4674,10 +4674,10 @@
         <v>107</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -4696,10 +4696,10 @@
         <v>108</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -4796,10 +4796,10 @@
         <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -4818,10 +4818,10 @@
         <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -4840,10 +4840,10 @@
         <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -4862,10 +4862,10 @@
         <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4884,10 +4884,10 @@
         <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
@@ -4906,10 +4906,10 @@
         <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -5029,7 +5029,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5124,10 +5124,10 @@
         <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5159,10 +5159,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
@@ -5219,7 +5219,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
@@ -5239,7 +5239,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -5350,11 +5350,11 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -5373,11 +5373,11 @@
         <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -5430,11 +5430,11 @@
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5451,11 +5451,11 @@
         <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5472,11 +5472,11 @@
         <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5538,16 +5538,16 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5562,16 +5562,16 @@
         <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5727,16 +5727,16 @@
         <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5764,16 +5764,16 @@
         <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5827,16 +5827,16 @@
         <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5864,16 +5864,16 @@
         <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -6031,16 +6031,16 @@
         <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -6055,16 +6055,16 @@
         <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -6079,16 +6079,16 @@
         <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -6142,16 +6142,16 @@
         <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -6166,16 +6166,16 @@
         <v>104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -6190,16 +6190,16 @@
         <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
